--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eedc1a3dcf763a1/Documents/Hindi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{20D42D7D-3EB2-45DC-A438-FCFBA135C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80578E2C-E745-4ADE-9459-3261CE3B403E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{20D42D7D-3EB2-45DC-A438-FCFBA135C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CACFE21-66AF-485F-AE54-A351B714AAE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6626AD4B-0A22-4C09-8D03-A95FA2517AF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6626AD4B-0A22-4C09-8D03-A95FA2517AF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Adjectives" sheetId="3" r:id="rId1"/>
     <sheet name="Numbers" sheetId="2" r:id="rId2"/>
     <sheet name="Verbs" sheetId="1" r:id="rId3"/>
     <sheet name="Words" sheetId="4" r:id="rId4"/>
+    <sheet name="Letters" sheetId="5" r:id="rId5"/>
+    <sheet name="Matras" sheetId="6" r:id="rId6"/>
+    <sheet name="Barakhadi" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1526">
   <si>
     <t>To ask</t>
   </si>
@@ -1891,6 +1894,2721 @@
   </si>
   <si>
     <t>Hardworking</t>
+  </si>
+  <si>
+    <t>अ</t>
+  </si>
+  <si>
+    <t>आ</t>
+  </si>
+  <si>
+    <t>इ</t>
+  </si>
+  <si>
+    <t>ई</t>
+  </si>
+  <si>
+    <t>उ</t>
+  </si>
+  <si>
+    <t>ऊ</t>
+  </si>
+  <si>
+    <t>ऋ</t>
+  </si>
+  <si>
+    <t>ए</t>
+  </si>
+  <si>
+    <t>ऐ</t>
+  </si>
+  <si>
+    <t>ओ</t>
+  </si>
+  <si>
+    <t>औ</t>
+  </si>
+  <si>
+    <t>अं</t>
+  </si>
+  <si>
+    <t>अः</t>
+  </si>
+  <si>
+    <t>क</t>
+  </si>
+  <si>
+    <t>ख</t>
+  </si>
+  <si>
+    <t>ग</t>
+  </si>
+  <si>
+    <t>घ</t>
+  </si>
+  <si>
+    <t>ङ</t>
+  </si>
+  <si>
+    <t>च</t>
+  </si>
+  <si>
+    <t>छ</t>
+  </si>
+  <si>
+    <t>ज</t>
+  </si>
+  <si>
+    <t>झ</t>
+  </si>
+  <si>
+    <t>ञ</t>
+  </si>
+  <si>
+    <t>ट</t>
+  </si>
+  <si>
+    <t>ठ</t>
+  </si>
+  <si>
+    <t>ड</t>
+  </si>
+  <si>
+    <t>ढ</t>
+  </si>
+  <si>
+    <t>ण</t>
+  </si>
+  <si>
+    <t>त</t>
+  </si>
+  <si>
+    <t>थ</t>
+  </si>
+  <si>
+    <t>द</t>
+  </si>
+  <si>
+    <t>ध</t>
+  </si>
+  <si>
+    <t>न</t>
+  </si>
+  <si>
+    <t>प</t>
+  </si>
+  <si>
+    <t>फ</t>
+  </si>
+  <si>
+    <t>ब</t>
+  </si>
+  <si>
+    <t>भ</t>
+  </si>
+  <si>
+    <t>म</t>
+  </si>
+  <si>
+    <t>य</t>
+  </si>
+  <si>
+    <t>र</t>
+  </si>
+  <si>
+    <t>ल</t>
+  </si>
+  <si>
+    <t>व</t>
+  </si>
+  <si>
+    <t>श</t>
+  </si>
+  <si>
+    <t>ष</t>
+  </si>
+  <si>
+    <t>स</t>
+  </si>
+  <si>
+    <t>ह</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>kha</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>gha</t>
+  </si>
+  <si>
+    <t>nga</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>chha</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>jha</t>
+  </si>
+  <si>
+    <t>nya</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>tha</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>dha</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>pha</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>bha</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>ा</t>
+  </si>
+  <si>
+    <t>ि</t>
+  </si>
+  <si>
+    <t>ी</t>
+  </si>
+  <si>
+    <t>ु</t>
+  </si>
+  <si>
+    <t>ू</t>
+  </si>
+  <si>
+    <t>ृ</t>
+  </si>
+  <si>
+    <t>े</t>
+  </si>
+  <si>
+    <t>ै</t>
+  </si>
+  <si>
+    <t>ो</t>
+  </si>
+  <si>
+    <t>ौ</t>
+  </si>
+  <si>
+    <t>ं</t>
+  </si>
+  <si>
+    <t>ः</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>का</t>
+  </si>
+  <si>
+    <t>कि</t>
+  </si>
+  <si>
+    <t>की</t>
+  </si>
+  <si>
+    <t>कु</t>
+  </si>
+  <si>
+    <t>कू</t>
+  </si>
+  <si>
+    <t>कृ</t>
+  </si>
+  <si>
+    <t>के</t>
+  </si>
+  <si>
+    <t>कै</t>
+  </si>
+  <si>
+    <t>को</t>
+  </si>
+  <si>
+    <t>कौ</t>
+  </si>
+  <si>
+    <t>कं</t>
+  </si>
+  <si>
+    <t>कः</t>
+  </si>
+  <si>
+    <t>खा</t>
+  </si>
+  <si>
+    <t>खि</t>
+  </si>
+  <si>
+    <t>खी</t>
+  </si>
+  <si>
+    <t>खु</t>
+  </si>
+  <si>
+    <t>खू</t>
+  </si>
+  <si>
+    <t>खृ</t>
+  </si>
+  <si>
+    <t>खे</t>
+  </si>
+  <si>
+    <t>खै</t>
+  </si>
+  <si>
+    <t>खो</t>
+  </si>
+  <si>
+    <t>खौ</t>
+  </si>
+  <si>
+    <t>खं</t>
+  </si>
+  <si>
+    <t>खः</t>
+  </si>
+  <si>
+    <t>गा</t>
+  </si>
+  <si>
+    <t>गि</t>
+  </si>
+  <si>
+    <t>गी</t>
+  </si>
+  <si>
+    <t>गु</t>
+  </si>
+  <si>
+    <t>गू</t>
+  </si>
+  <si>
+    <t>गृ</t>
+  </si>
+  <si>
+    <t>गे</t>
+  </si>
+  <si>
+    <t>गै</t>
+  </si>
+  <si>
+    <t>गो</t>
+  </si>
+  <si>
+    <t>गौ</t>
+  </si>
+  <si>
+    <t>गं</t>
+  </si>
+  <si>
+    <t>गः</t>
+  </si>
+  <si>
+    <t>घा</t>
+  </si>
+  <si>
+    <t>घि</t>
+  </si>
+  <si>
+    <t>घी</t>
+  </si>
+  <si>
+    <t>घु</t>
+  </si>
+  <si>
+    <t>घू</t>
+  </si>
+  <si>
+    <t>घृ</t>
+  </si>
+  <si>
+    <t>घे</t>
+  </si>
+  <si>
+    <t>घै</t>
+  </si>
+  <si>
+    <t>घो</t>
+  </si>
+  <si>
+    <t>घौ</t>
+  </si>
+  <si>
+    <t>घं</t>
+  </si>
+  <si>
+    <t>घः</t>
+  </si>
+  <si>
+    <t>ङा</t>
+  </si>
+  <si>
+    <t>ङि</t>
+  </si>
+  <si>
+    <t>ङी</t>
+  </si>
+  <si>
+    <t>ङु</t>
+  </si>
+  <si>
+    <t>ङू</t>
+  </si>
+  <si>
+    <t>ङृ</t>
+  </si>
+  <si>
+    <t>ङे</t>
+  </si>
+  <si>
+    <t>ङै</t>
+  </si>
+  <si>
+    <t>ङो</t>
+  </si>
+  <si>
+    <t>ङौ</t>
+  </si>
+  <si>
+    <t>ङं</t>
+  </si>
+  <si>
+    <t>ङः</t>
+  </si>
+  <si>
+    <t>चा</t>
+  </si>
+  <si>
+    <t>चि</t>
+  </si>
+  <si>
+    <t>ची</t>
+  </si>
+  <si>
+    <t>चु</t>
+  </si>
+  <si>
+    <t>चू</t>
+  </si>
+  <si>
+    <t>चृ</t>
+  </si>
+  <si>
+    <t>चे</t>
+  </si>
+  <si>
+    <t>चै</t>
+  </si>
+  <si>
+    <t>चो</t>
+  </si>
+  <si>
+    <t>चौ</t>
+  </si>
+  <si>
+    <t>चं</t>
+  </si>
+  <si>
+    <t>चः</t>
+  </si>
+  <si>
+    <t>छा</t>
+  </si>
+  <si>
+    <t>छि</t>
+  </si>
+  <si>
+    <t>छी</t>
+  </si>
+  <si>
+    <t>छु</t>
+  </si>
+  <si>
+    <t>छू</t>
+  </si>
+  <si>
+    <t>छृ</t>
+  </si>
+  <si>
+    <t>छे</t>
+  </si>
+  <si>
+    <t>छै</t>
+  </si>
+  <si>
+    <t>छो</t>
+  </si>
+  <si>
+    <t>छौ</t>
+  </si>
+  <si>
+    <t>छं</t>
+  </si>
+  <si>
+    <t>छः</t>
+  </si>
+  <si>
+    <t>जा</t>
+  </si>
+  <si>
+    <t>जि</t>
+  </si>
+  <si>
+    <t>जी</t>
+  </si>
+  <si>
+    <t>जु</t>
+  </si>
+  <si>
+    <t>जू</t>
+  </si>
+  <si>
+    <t>जृ</t>
+  </si>
+  <si>
+    <t>जे</t>
+  </si>
+  <si>
+    <t>जै</t>
+  </si>
+  <si>
+    <t>जो</t>
+  </si>
+  <si>
+    <t>जौ</t>
+  </si>
+  <si>
+    <t>जं</t>
+  </si>
+  <si>
+    <t>जः</t>
+  </si>
+  <si>
+    <t>झा</t>
+  </si>
+  <si>
+    <t>झि</t>
+  </si>
+  <si>
+    <t>झी</t>
+  </si>
+  <si>
+    <t>झु</t>
+  </si>
+  <si>
+    <t>झू</t>
+  </si>
+  <si>
+    <t>झृ</t>
+  </si>
+  <si>
+    <t>झे</t>
+  </si>
+  <si>
+    <t>झै</t>
+  </si>
+  <si>
+    <t>झो</t>
+  </si>
+  <si>
+    <t>झौ</t>
+  </si>
+  <si>
+    <t>झं</t>
+  </si>
+  <si>
+    <t>झः</t>
+  </si>
+  <si>
+    <t>ञा</t>
+  </si>
+  <si>
+    <t>ञि</t>
+  </si>
+  <si>
+    <t>ञी</t>
+  </si>
+  <si>
+    <t>ञु</t>
+  </si>
+  <si>
+    <t>ञू</t>
+  </si>
+  <si>
+    <t>ञृ</t>
+  </si>
+  <si>
+    <t>ञे</t>
+  </si>
+  <si>
+    <t>ञै</t>
+  </si>
+  <si>
+    <t>ञो</t>
+  </si>
+  <si>
+    <t>ञौ</t>
+  </si>
+  <si>
+    <t>ञं</t>
+  </si>
+  <si>
+    <t>ञः</t>
+  </si>
+  <si>
+    <t>टा</t>
+  </si>
+  <si>
+    <t>टि</t>
+  </si>
+  <si>
+    <t>टी</t>
+  </si>
+  <si>
+    <t>टु</t>
+  </si>
+  <si>
+    <t>टू</t>
+  </si>
+  <si>
+    <t>टृ</t>
+  </si>
+  <si>
+    <t>टे</t>
+  </si>
+  <si>
+    <t>टै</t>
+  </si>
+  <si>
+    <t>टो</t>
+  </si>
+  <si>
+    <t>टौ</t>
+  </si>
+  <si>
+    <t>टं</t>
+  </si>
+  <si>
+    <t>टः</t>
+  </si>
+  <si>
+    <t>ठा</t>
+  </si>
+  <si>
+    <t>ठि</t>
+  </si>
+  <si>
+    <t>ठी</t>
+  </si>
+  <si>
+    <t>ठु</t>
+  </si>
+  <si>
+    <t>ठू</t>
+  </si>
+  <si>
+    <t>ठृ</t>
+  </si>
+  <si>
+    <t>ठे</t>
+  </si>
+  <si>
+    <t>ठै</t>
+  </si>
+  <si>
+    <t>ठो</t>
+  </si>
+  <si>
+    <t>ठौ</t>
+  </si>
+  <si>
+    <t>ठं</t>
+  </si>
+  <si>
+    <t>ठः</t>
+  </si>
+  <si>
+    <t>डा</t>
+  </si>
+  <si>
+    <t>डि</t>
+  </si>
+  <si>
+    <t>डी</t>
+  </si>
+  <si>
+    <t>डु</t>
+  </si>
+  <si>
+    <t>डू</t>
+  </si>
+  <si>
+    <t>डृ</t>
+  </si>
+  <si>
+    <t>डे</t>
+  </si>
+  <si>
+    <t>डै</t>
+  </si>
+  <si>
+    <t>डो</t>
+  </si>
+  <si>
+    <t>डौ</t>
+  </si>
+  <si>
+    <t>डं</t>
+  </si>
+  <si>
+    <t>डः</t>
+  </si>
+  <si>
+    <t>ढा</t>
+  </si>
+  <si>
+    <t>ढि</t>
+  </si>
+  <si>
+    <t>ढी</t>
+  </si>
+  <si>
+    <t>ढु</t>
+  </si>
+  <si>
+    <t>ढू</t>
+  </si>
+  <si>
+    <t>ढृ</t>
+  </si>
+  <si>
+    <t>ढे</t>
+  </si>
+  <si>
+    <t>ढै</t>
+  </si>
+  <si>
+    <t>ढो</t>
+  </si>
+  <si>
+    <t>ढौ</t>
+  </si>
+  <si>
+    <t>ढं</t>
+  </si>
+  <si>
+    <t>ढः</t>
+  </si>
+  <si>
+    <t>णा</t>
+  </si>
+  <si>
+    <t>णि</t>
+  </si>
+  <si>
+    <t>णी</t>
+  </si>
+  <si>
+    <t>णु</t>
+  </si>
+  <si>
+    <t>णू</t>
+  </si>
+  <si>
+    <t>णृ</t>
+  </si>
+  <si>
+    <t>णे</t>
+  </si>
+  <si>
+    <t>णै</t>
+  </si>
+  <si>
+    <t>णो</t>
+  </si>
+  <si>
+    <t>णौ</t>
+  </si>
+  <si>
+    <t>णं</t>
+  </si>
+  <si>
+    <t>णः</t>
+  </si>
+  <si>
+    <t>ता</t>
+  </si>
+  <si>
+    <t>ति</t>
+  </si>
+  <si>
+    <t>ती</t>
+  </si>
+  <si>
+    <t>तु</t>
+  </si>
+  <si>
+    <t>तू</t>
+  </si>
+  <si>
+    <t>तृ</t>
+  </si>
+  <si>
+    <t>ते</t>
+  </si>
+  <si>
+    <t>तै</t>
+  </si>
+  <si>
+    <t>तो</t>
+  </si>
+  <si>
+    <t>तौ</t>
+  </si>
+  <si>
+    <t>तं</t>
+  </si>
+  <si>
+    <t>तः</t>
+  </si>
+  <si>
+    <t>था</t>
+  </si>
+  <si>
+    <t>थि</t>
+  </si>
+  <si>
+    <t>थी</t>
+  </si>
+  <si>
+    <t>थु</t>
+  </si>
+  <si>
+    <t>थू</t>
+  </si>
+  <si>
+    <t>थृ</t>
+  </si>
+  <si>
+    <t>थे</t>
+  </si>
+  <si>
+    <t>थै</t>
+  </si>
+  <si>
+    <t>थो</t>
+  </si>
+  <si>
+    <t>थौ</t>
+  </si>
+  <si>
+    <t>थं</t>
+  </si>
+  <si>
+    <t>थः</t>
+  </si>
+  <si>
+    <t>दा</t>
+  </si>
+  <si>
+    <t>दि</t>
+  </si>
+  <si>
+    <t>दी</t>
+  </si>
+  <si>
+    <t>दु</t>
+  </si>
+  <si>
+    <t>दू</t>
+  </si>
+  <si>
+    <t>दृ</t>
+  </si>
+  <si>
+    <t>दे</t>
+  </si>
+  <si>
+    <t>दै</t>
+  </si>
+  <si>
+    <t>दो</t>
+  </si>
+  <si>
+    <t>दौ</t>
+  </si>
+  <si>
+    <t>दं</t>
+  </si>
+  <si>
+    <t>दः</t>
+  </si>
+  <si>
+    <t>धा</t>
+  </si>
+  <si>
+    <t>धि</t>
+  </si>
+  <si>
+    <t>धी</t>
+  </si>
+  <si>
+    <t>धु</t>
+  </si>
+  <si>
+    <t>धू</t>
+  </si>
+  <si>
+    <t>धृ</t>
+  </si>
+  <si>
+    <t>धे</t>
+  </si>
+  <si>
+    <t>धै</t>
+  </si>
+  <si>
+    <t>धो</t>
+  </si>
+  <si>
+    <t>धौ</t>
+  </si>
+  <si>
+    <t>धं</t>
+  </si>
+  <si>
+    <t>धः</t>
+  </si>
+  <si>
+    <t>ना</t>
+  </si>
+  <si>
+    <t>नि</t>
+  </si>
+  <si>
+    <t>नी</t>
+  </si>
+  <si>
+    <t>नु</t>
+  </si>
+  <si>
+    <t>नू</t>
+  </si>
+  <si>
+    <t>नृ</t>
+  </si>
+  <si>
+    <t>ने</t>
+  </si>
+  <si>
+    <t>नै</t>
+  </si>
+  <si>
+    <t>नो</t>
+  </si>
+  <si>
+    <t>नौ</t>
+  </si>
+  <si>
+    <t>नं</t>
+  </si>
+  <si>
+    <t>नः</t>
+  </si>
+  <si>
+    <t>पा</t>
+  </si>
+  <si>
+    <t>पि</t>
+  </si>
+  <si>
+    <t>पी</t>
+  </si>
+  <si>
+    <t>पु</t>
+  </si>
+  <si>
+    <t>पू</t>
+  </si>
+  <si>
+    <t>पृ</t>
+  </si>
+  <si>
+    <t>पे</t>
+  </si>
+  <si>
+    <t>पै</t>
+  </si>
+  <si>
+    <t>पो</t>
+  </si>
+  <si>
+    <t>पौ</t>
+  </si>
+  <si>
+    <t>पं</t>
+  </si>
+  <si>
+    <t>पः</t>
+  </si>
+  <si>
+    <t>फा</t>
+  </si>
+  <si>
+    <t>फि</t>
+  </si>
+  <si>
+    <t>फी</t>
+  </si>
+  <si>
+    <t>फु</t>
+  </si>
+  <si>
+    <t>फू</t>
+  </si>
+  <si>
+    <t>फृ</t>
+  </si>
+  <si>
+    <t>फे</t>
+  </si>
+  <si>
+    <t>फै</t>
+  </si>
+  <si>
+    <t>फो</t>
+  </si>
+  <si>
+    <t>फौ</t>
+  </si>
+  <si>
+    <t>फं</t>
+  </si>
+  <si>
+    <t>फः</t>
+  </si>
+  <si>
+    <t>बा</t>
+  </si>
+  <si>
+    <t>बि</t>
+  </si>
+  <si>
+    <t>बी</t>
+  </si>
+  <si>
+    <t>बु</t>
+  </si>
+  <si>
+    <t>बू</t>
+  </si>
+  <si>
+    <t>बृ</t>
+  </si>
+  <si>
+    <t>बे</t>
+  </si>
+  <si>
+    <t>बै</t>
+  </si>
+  <si>
+    <t>बो</t>
+  </si>
+  <si>
+    <t>बौ</t>
+  </si>
+  <si>
+    <t>बं</t>
+  </si>
+  <si>
+    <t>बः</t>
+  </si>
+  <si>
+    <t>भा</t>
+  </si>
+  <si>
+    <t>भि</t>
+  </si>
+  <si>
+    <t>भी</t>
+  </si>
+  <si>
+    <t>भु</t>
+  </si>
+  <si>
+    <t>भू</t>
+  </si>
+  <si>
+    <t>भृ</t>
+  </si>
+  <si>
+    <t>भे</t>
+  </si>
+  <si>
+    <t>भै</t>
+  </si>
+  <si>
+    <t>भो</t>
+  </si>
+  <si>
+    <t>भौ</t>
+  </si>
+  <si>
+    <t>भं</t>
+  </si>
+  <si>
+    <t>भः</t>
+  </si>
+  <si>
+    <t>मा</t>
+  </si>
+  <si>
+    <t>मि</t>
+  </si>
+  <si>
+    <t>मी</t>
+  </si>
+  <si>
+    <t>मु</t>
+  </si>
+  <si>
+    <t>मू</t>
+  </si>
+  <si>
+    <t>मृ</t>
+  </si>
+  <si>
+    <t>मे</t>
+  </si>
+  <si>
+    <t>मै</t>
+  </si>
+  <si>
+    <t>मो</t>
+  </si>
+  <si>
+    <t>मौ</t>
+  </si>
+  <si>
+    <t>मं</t>
+  </si>
+  <si>
+    <t>मः</t>
+  </si>
+  <si>
+    <t>या</t>
+  </si>
+  <si>
+    <t>यि</t>
+  </si>
+  <si>
+    <t>यी</t>
+  </si>
+  <si>
+    <t>यु</t>
+  </si>
+  <si>
+    <t>यू</t>
+  </si>
+  <si>
+    <t>यृ</t>
+  </si>
+  <si>
+    <t>ये</t>
+  </si>
+  <si>
+    <t>यै</t>
+  </si>
+  <si>
+    <t>यो</t>
+  </si>
+  <si>
+    <t>यौ</t>
+  </si>
+  <si>
+    <t>यं</t>
+  </si>
+  <si>
+    <t>यः</t>
+  </si>
+  <si>
+    <t>रा</t>
+  </si>
+  <si>
+    <t>रि</t>
+  </si>
+  <si>
+    <t>री</t>
+  </si>
+  <si>
+    <t>रु</t>
+  </si>
+  <si>
+    <t>रू</t>
+  </si>
+  <si>
+    <t>रृ</t>
+  </si>
+  <si>
+    <t>रे</t>
+  </si>
+  <si>
+    <t>रै</t>
+  </si>
+  <si>
+    <t>रो</t>
+  </si>
+  <si>
+    <t>रौ</t>
+  </si>
+  <si>
+    <t>रं</t>
+  </si>
+  <si>
+    <t>रः</t>
+  </si>
+  <si>
+    <t>ला</t>
+  </si>
+  <si>
+    <t>लि</t>
+  </si>
+  <si>
+    <t>ली</t>
+  </si>
+  <si>
+    <t>लु</t>
+  </si>
+  <si>
+    <t>लू</t>
+  </si>
+  <si>
+    <t>लृ</t>
+  </si>
+  <si>
+    <t>ले</t>
+  </si>
+  <si>
+    <t>लै</t>
+  </si>
+  <si>
+    <t>लो</t>
+  </si>
+  <si>
+    <t>लौ</t>
+  </si>
+  <si>
+    <t>लं</t>
+  </si>
+  <si>
+    <t>लः</t>
+  </si>
+  <si>
+    <t>वा</t>
+  </si>
+  <si>
+    <t>वि</t>
+  </si>
+  <si>
+    <t>वी</t>
+  </si>
+  <si>
+    <t>वु</t>
+  </si>
+  <si>
+    <t>वू</t>
+  </si>
+  <si>
+    <t>वृ</t>
+  </si>
+  <si>
+    <t>वे</t>
+  </si>
+  <si>
+    <t>वै</t>
+  </si>
+  <si>
+    <t>वो</t>
+  </si>
+  <si>
+    <t>वौ</t>
+  </si>
+  <si>
+    <t>वं</t>
+  </si>
+  <si>
+    <t>वः</t>
+  </si>
+  <si>
+    <t>शा</t>
+  </si>
+  <si>
+    <t>शि</t>
+  </si>
+  <si>
+    <t>शी</t>
+  </si>
+  <si>
+    <t>शु</t>
+  </si>
+  <si>
+    <t>शू</t>
+  </si>
+  <si>
+    <t>शृ</t>
+  </si>
+  <si>
+    <t>शे</t>
+  </si>
+  <si>
+    <t>शै</t>
+  </si>
+  <si>
+    <t>शो</t>
+  </si>
+  <si>
+    <t>शौ</t>
+  </si>
+  <si>
+    <t>शं</t>
+  </si>
+  <si>
+    <t>शः</t>
+  </si>
+  <si>
+    <t>षा</t>
+  </si>
+  <si>
+    <t>षि</t>
+  </si>
+  <si>
+    <t>षी</t>
+  </si>
+  <si>
+    <t>षु</t>
+  </si>
+  <si>
+    <t>षू</t>
+  </si>
+  <si>
+    <t>षृ</t>
+  </si>
+  <si>
+    <t>षे</t>
+  </si>
+  <si>
+    <t>षै</t>
+  </si>
+  <si>
+    <t>षो</t>
+  </si>
+  <si>
+    <t>षौ</t>
+  </si>
+  <si>
+    <t>षं</t>
+  </si>
+  <si>
+    <t>षः</t>
+  </si>
+  <si>
+    <t>सा</t>
+  </si>
+  <si>
+    <t>सि</t>
+  </si>
+  <si>
+    <t>सी</t>
+  </si>
+  <si>
+    <t>सु</t>
+  </si>
+  <si>
+    <t>सू</t>
+  </si>
+  <si>
+    <t>सृ</t>
+  </si>
+  <si>
+    <t>से</t>
+  </si>
+  <si>
+    <t>सै</t>
+  </si>
+  <si>
+    <t>सो</t>
+  </si>
+  <si>
+    <t>सौ</t>
+  </si>
+  <si>
+    <t>सं</t>
+  </si>
+  <si>
+    <t>सः</t>
+  </si>
+  <si>
+    <t>हा</t>
+  </si>
+  <si>
+    <t>हि</t>
+  </si>
+  <si>
+    <t>ही</t>
+  </si>
+  <si>
+    <t>हु</t>
+  </si>
+  <si>
+    <t>हू</t>
+  </si>
+  <si>
+    <t>हृ</t>
+  </si>
+  <si>
+    <t>हे</t>
+  </si>
+  <si>
+    <t>है</t>
+  </si>
+  <si>
+    <t>हो</t>
+  </si>
+  <si>
+    <t>हौ</t>
+  </si>
+  <si>
+    <t>हं</t>
+  </si>
+  <si>
+    <t>हः</t>
+  </si>
+  <si>
+    <t>क्ष</t>
+  </si>
+  <si>
+    <t>क्षा</t>
+  </si>
+  <si>
+    <t>क्षि</t>
+  </si>
+  <si>
+    <t>क्षी</t>
+  </si>
+  <si>
+    <t>क्षु</t>
+  </si>
+  <si>
+    <t>क्षू</t>
+  </si>
+  <si>
+    <t>क्षृ</t>
+  </si>
+  <si>
+    <t>क्षे</t>
+  </si>
+  <si>
+    <t>क्षै</t>
+  </si>
+  <si>
+    <t>क्षो</t>
+  </si>
+  <si>
+    <t>क्षौ</t>
+  </si>
+  <si>
+    <t>क्षं</t>
+  </si>
+  <si>
+    <t>क्षः</t>
+  </si>
+  <si>
+    <t>त्र</t>
+  </si>
+  <si>
+    <t>त्रा</t>
+  </si>
+  <si>
+    <t>त्रि</t>
+  </si>
+  <si>
+    <t>त्री</t>
+  </si>
+  <si>
+    <t>त्रु</t>
+  </si>
+  <si>
+    <t>त्रू</t>
+  </si>
+  <si>
+    <t>त्रृ</t>
+  </si>
+  <si>
+    <t>त्रे</t>
+  </si>
+  <si>
+    <t>त्रै</t>
+  </si>
+  <si>
+    <t>त्रो</t>
+  </si>
+  <si>
+    <t>त्रौ</t>
+  </si>
+  <si>
+    <t>त्रं</t>
+  </si>
+  <si>
+    <t>त्रः</t>
+  </si>
+  <si>
+    <t>ज्ञ</t>
+  </si>
+  <si>
+    <t>ज्ञा</t>
+  </si>
+  <si>
+    <t>ज्ञि</t>
+  </si>
+  <si>
+    <t>ज्ञी</t>
+  </si>
+  <si>
+    <t>ज्ञु</t>
+  </si>
+  <si>
+    <t>ज्ञू</t>
+  </si>
+  <si>
+    <t>ज्ञृ</t>
+  </si>
+  <si>
+    <t>ज्ञे</t>
+  </si>
+  <si>
+    <t>ज्ञै</t>
+  </si>
+  <si>
+    <t>ज्ञो</t>
+  </si>
+  <si>
+    <t>ज्ञौ</t>
+  </si>
+  <si>
+    <t>ज्ञं</t>
+  </si>
+  <si>
+    <t>ज्ञः</t>
+  </si>
+  <si>
+    <t>kaa</t>
+  </si>
+  <si>
+    <t>kai</t>
+  </si>
+  <si>
+    <t>kau</t>
+  </si>
+  <si>
+    <t>khaa</t>
+  </si>
+  <si>
+    <t>khai</t>
+  </si>
+  <si>
+    <t>khau</t>
+  </si>
+  <si>
+    <t>gaa</t>
+  </si>
+  <si>
+    <t>gai</t>
+  </si>
+  <si>
+    <t>gau</t>
+  </si>
+  <si>
+    <t>ghaa</t>
+  </si>
+  <si>
+    <t>ghai</t>
+  </si>
+  <si>
+    <t>ghau</t>
+  </si>
+  <si>
+    <t>ngaa</t>
+  </si>
+  <si>
+    <t>ngai</t>
+  </si>
+  <si>
+    <t>ngau</t>
+  </si>
+  <si>
+    <t>chaa</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>chau</t>
+  </si>
+  <si>
+    <t>chhaa</t>
+  </si>
+  <si>
+    <t>chhai</t>
+  </si>
+  <si>
+    <t>chhau</t>
+  </si>
+  <si>
+    <t>jaa</t>
+  </si>
+  <si>
+    <t>jai</t>
+  </si>
+  <si>
+    <t>jau</t>
+  </si>
+  <si>
+    <t>jhaa</t>
+  </si>
+  <si>
+    <t>jhai</t>
+  </si>
+  <si>
+    <t>jhau</t>
+  </si>
+  <si>
+    <t>nyaa</t>
+  </si>
+  <si>
+    <t>nyai</t>
+  </si>
+  <si>
+    <t>nyau</t>
+  </si>
+  <si>
+    <t>taa</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>thaa</t>
+  </si>
+  <si>
+    <t>thai</t>
+  </si>
+  <si>
+    <t>thau</t>
+  </si>
+  <si>
+    <t>daa</t>
+  </si>
+  <si>
+    <t>dai</t>
+  </si>
+  <si>
+    <t>dau</t>
+  </si>
+  <si>
+    <t>dhaa</t>
+  </si>
+  <si>
+    <t>dhai</t>
+  </si>
+  <si>
+    <t>dhau</t>
+  </si>
+  <si>
+    <t>naa</t>
+  </si>
+  <si>
+    <t>nai</t>
+  </si>
+  <si>
+    <t>paa</t>
+  </si>
+  <si>
+    <t>pai</t>
+  </si>
+  <si>
+    <t>pau</t>
+  </si>
+  <si>
+    <t>phaa</t>
+  </si>
+  <si>
+    <t>phai</t>
+  </si>
+  <si>
+    <t>phau</t>
+  </si>
+  <si>
+    <t>baa</t>
+  </si>
+  <si>
+    <t>bai</t>
+  </si>
+  <si>
+    <t>bau</t>
+  </si>
+  <si>
+    <t>bhaa</t>
+  </si>
+  <si>
+    <t>bhai</t>
+  </si>
+  <si>
+    <t>bhau</t>
+  </si>
+  <si>
+    <t>maa</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>mau</t>
+  </si>
+  <si>
+    <t>yaa</t>
+  </si>
+  <si>
+    <t>yai</t>
+  </si>
+  <si>
+    <t>yau</t>
+  </si>
+  <si>
+    <t>raa</t>
+  </si>
+  <si>
+    <t>rai</t>
+  </si>
+  <si>
+    <t>rau</t>
+  </si>
+  <si>
+    <t>laa</t>
+  </si>
+  <si>
+    <t>lai</t>
+  </si>
+  <si>
+    <t>lau</t>
+  </si>
+  <si>
+    <t>vaa</t>
+  </si>
+  <si>
+    <t>vai</t>
+  </si>
+  <si>
+    <t>vau</t>
+  </si>
+  <si>
+    <t>shaa</t>
+  </si>
+  <si>
+    <t>shai</t>
+  </si>
+  <si>
+    <t>shau</t>
+  </si>
+  <si>
+    <t>saa</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>sau</t>
+  </si>
+  <si>
+    <t>haa</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>hau</t>
+  </si>
+  <si>
+    <t>kshaa</t>
+  </si>
+  <si>
+    <t>kshai</t>
+  </si>
+  <si>
+    <t>kshau</t>
+  </si>
+  <si>
+    <t>traa</t>
+  </si>
+  <si>
+    <t>trai</t>
+  </si>
+  <si>
+    <t>trau</t>
+  </si>
+  <si>
+    <t>gyaa</t>
+  </si>
+  <si>
+    <t>gyai</t>
+  </si>
+  <si>
+    <t>gyau</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>kii</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>kuu</t>
+  </si>
+  <si>
+    <t>kri</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>kah</t>
+  </si>
+  <si>
+    <t>khi</t>
+  </si>
+  <si>
+    <t>khii</t>
+  </si>
+  <si>
+    <t>khu</t>
+  </si>
+  <si>
+    <t>khuu</t>
+  </si>
+  <si>
+    <t>khri</t>
+  </si>
+  <si>
+    <t>khe</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>khah</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>gii</t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>guu</t>
+  </si>
+  <si>
+    <t>gri</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>gan</t>
+  </si>
+  <si>
+    <t>gah</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>ghii</t>
+  </si>
+  <si>
+    <t>ghu</t>
+  </si>
+  <si>
+    <t>ghuu</t>
+  </si>
+  <si>
+    <t>ghri</t>
+  </si>
+  <si>
+    <t>ghe</t>
+  </si>
+  <si>
+    <t>gho</t>
+  </si>
+  <si>
+    <t>ghan</t>
+  </si>
+  <si>
+    <t>ghah</t>
+  </si>
+  <si>
+    <t>ngi</t>
+  </si>
+  <si>
+    <t>ngii</t>
+  </si>
+  <si>
+    <t>ngu</t>
+  </si>
+  <si>
+    <t>nguu</t>
+  </si>
+  <si>
+    <t>ngri</t>
+  </si>
+  <si>
+    <t>nge</t>
+  </si>
+  <si>
+    <t>ngo</t>
+  </si>
+  <si>
+    <t>ngan</t>
+  </si>
+  <si>
+    <t>ngah</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>chii</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>chuu</t>
+  </si>
+  <si>
+    <t>chri</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>chan</t>
+  </si>
+  <si>
+    <t>chah</t>
+  </si>
+  <si>
+    <t>chhi</t>
+  </si>
+  <si>
+    <t>chhii</t>
+  </si>
+  <si>
+    <t>chhu</t>
+  </si>
+  <si>
+    <t>chhuu</t>
+  </si>
+  <si>
+    <t>chhri</t>
+  </si>
+  <si>
+    <t>chhe</t>
+  </si>
+  <si>
+    <t>chho</t>
+  </si>
+  <si>
+    <t>chhan</t>
+  </si>
+  <si>
+    <t>chhah</t>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>jii</t>
+  </si>
+  <si>
+    <t>ju</t>
+  </si>
+  <si>
+    <t>juu</t>
+  </si>
+  <si>
+    <t>jri</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>jah</t>
+  </si>
+  <si>
+    <t>jhi</t>
+  </si>
+  <si>
+    <t>jhii</t>
+  </si>
+  <si>
+    <t>jhu</t>
+  </si>
+  <si>
+    <t>jhuu</t>
+  </si>
+  <si>
+    <t>jhri</t>
+  </si>
+  <si>
+    <t>jhe</t>
+  </si>
+  <si>
+    <t>jho</t>
+  </si>
+  <si>
+    <t>jhan</t>
+  </si>
+  <si>
+    <t>jhah</t>
+  </si>
+  <si>
+    <t>nyi</t>
+  </si>
+  <si>
+    <t>nyii</t>
+  </si>
+  <si>
+    <t>nyu</t>
+  </si>
+  <si>
+    <t>nyuu</t>
+  </si>
+  <si>
+    <t>nyri</t>
+  </si>
+  <si>
+    <t>nye</t>
+  </si>
+  <si>
+    <t>nyo</t>
+  </si>
+  <si>
+    <t>nyan</t>
+  </si>
+  <si>
+    <t>nyah</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>tii</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>tuu</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>tah</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>thii</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>thuu</t>
+  </si>
+  <si>
+    <t>thri</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>tho</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>thah</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>dii</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>duu</t>
+  </si>
+  <si>
+    <t>dri</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>dah</t>
+  </si>
+  <si>
+    <t>dhi</t>
+  </si>
+  <si>
+    <t>dhii</t>
+  </si>
+  <si>
+    <t>dhu</t>
+  </si>
+  <si>
+    <t>dhuu</t>
+  </si>
+  <si>
+    <t>dhri</t>
+  </si>
+  <si>
+    <t>dhe</t>
+  </si>
+  <si>
+    <t>dho</t>
+  </si>
+  <si>
+    <t>dhan</t>
+  </si>
+  <si>
+    <t>dhah</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>nii</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>nuu</t>
+  </si>
+  <si>
+    <t>nri</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>nah</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>pii</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>puu</t>
+  </si>
+  <si>
+    <t>pri</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>pah</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>phii</t>
+  </si>
+  <si>
+    <t>phu</t>
+  </si>
+  <si>
+    <t>phuu</t>
+  </si>
+  <si>
+    <t>phri</t>
+  </si>
+  <si>
+    <t>phe</t>
+  </si>
+  <si>
+    <t>pho</t>
+  </si>
+  <si>
+    <t>phan</t>
+  </si>
+  <si>
+    <t>phah</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>bii</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>buu</t>
+  </si>
+  <si>
+    <t>bri</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>bah</t>
+  </si>
+  <si>
+    <t>bhi</t>
+  </si>
+  <si>
+    <t>bhii</t>
+  </si>
+  <si>
+    <t>bhu</t>
+  </si>
+  <si>
+    <t>bhuu</t>
+  </si>
+  <si>
+    <t>bhri</t>
+  </si>
+  <si>
+    <t>bhe</t>
+  </si>
+  <si>
+    <t>bho</t>
+  </si>
+  <si>
+    <t>bhan</t>
+  </si>
+  <si>
+    <t>bhah</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>mii</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>muu</t>
+  </si>
+  <si>
+    <t>mri</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>mah</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>yii</t>
+  </si>
+  <si>
+    <t>yu</t>
+  </si>
+  <si>
+    <t>yuu</t>
+  </si>
+  <si>
+    <t>yri</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>yan</t>
+  </si>
+  <si>
+    <t>yah</t>
+  </si>
+  <si>
+    <t>rii</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>ruu</t>
+  </si>
+  <si>
+    <t>rri</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>rah</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>lii</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>luu</t>
+  </si>
+  <si>
+    <t>lri</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>lah</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>vii</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>vuu</t>
+  </si>
+  <si>
+    <t>vri</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>vah</t>
+  </si>
+  <si>
+    <t>shi</t>
+  </si>
+  <si>
+    <t>shii</t>
+  </si>
+  <si>
+    <t>shu</t>
+  </si>
+  <si>
+    <t>shuu</t>
+  </si>
+  <si>
+    <t>shri</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>sho</t>
+  </si>
+  <si>
+    <t>shan</t>
+  </si>
+  <si>
+    <t>shah</t>
+  </si>
+  <si>
+    <t>shha</t>
+  </si>
+  <si>
+    <t>shhaa</t>
+  </si>
+  <si>
+    <t>shhi</t>
+  </si>
+  <si>
+    <t>shhii</t>
+  </si>
+  <si>
+    <t>shhu</t>
+  </si>
+  <si>
+    <t>shhuu</t>
+  </si>
+  <si>
+    <t>shhri</t>
+  </si>
+  <si>
+    <t>shhe</t>
+  </si>
+  <si>
+    <t>shhai</t>
+  </si>
+  <si>
+    <t>shho</t>
+  </si>
+  <si>
+    <t>shhau</t>
+  </si>
+  <si>
+    <t>shhan</t>
+  </si>
+  <si>
+    <t>shhah</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>sii</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>suu</t>
+  </si>
+  <si>
+    <t>sri</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>sah</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hii</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>huu</t>
+  </si>
+  <si>
+    <t>hri</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>hah</t>
+  </si>
+  <si>
+    <t>ksha</t>
+  </si>
+  <si>
+    <t>kshi</t>
+  </si>
+  <si>
+    <t>kshii</t>
+  </si>
+  <si>
+    <t>kshu</t>
+  </si>
+  <si>
+    <t>kshuu</t>
+  </si>
+  <si>
+    <t>kshri</t>
+  </si>
+  <si>
+    <t>kshe</t>
+  </si>
+  <si>
+    <t>ksho</t>
+  </si>
+  <si>
+    <t>kshan</t>
+  </si>
+  <si>
+    <t>kshah</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>trii</t>
+  </si>
+  <si>
+    <t>tru</t>
+  </si>
+  <si>
+    <t>truu</t>
+  </si>
+  <si>
+    <t>trri</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>tro</t>
+  </si>
+  <si>
+    <t>tran</t>
+  </si>
+  <si>
+    <t>trah</t>
+  </si>
+  <si>
+    <t>gya</t>
+  </si>
+  <si>
+    <t>gyi</t>
+  </si>
+  <si>
+    <t>gyii</t>
+  </si>
+  <si>
+    <t>gyu</t>
+  </si>
+  <si>
+    <t>gyuu</t>
+  </si>
+  <si>
+    <t>gyri</t>
+  </si>
+  <si>
+    <t>gye</t>
+  </si>
+  <si>
+    <t>gyo</t>
+  </si>
+  <si>
+    <t>gyan</t>
+  </si>
+  <si>
+    <t>gyah</t>
   </si>
 </sst>
 </file>
@@ -2257,14 +4975,14 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,7 +5566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56945825-945D-4DDC-AE3C-4B325D7C6643}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -5514,4 +8232,4281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7A50F6-8205-4371-BC9F-6F1BC80BD4AA}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>677</v>
+      </c>
+      <c r="B12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>678</v>
+      </c>
+      <c r="B13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>682</v>
+      </c>
+      <c r="B17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>683</v>
+      </c>
+      <c r="B18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>685</v>
+      </c>
+      <c r="B20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>686</v>
+      </c>
+      <c r="B21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>688</v>
+      </c>
+      <c r="B23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>689</v>
+      </c>
+      <c r="B24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>690</v>
+      </c>
+      <c r="B25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>691</v>
+      </c>
+      <c r="B26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>692</v>
+      </c>
+      <c r="B27" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>693</v>
+      </c>
+      <c r="B28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>690</v>
+      </c>
+      <c r="B30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>691</v>
+      </c>
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>692</v>
+      </c>
+      <c r="B32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>693</v>
+      </c>
+      <c r="B33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>695</v>
+      </c>
+      <c r="B35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>696</v>
+      </c>
+      <c r="B36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>697</v>
+      </c>
+      <c r="B37" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>698</v>
+      </c>
+      <c r="B38" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>699</v>
+      </c>
+      <c r="B39" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>700</v>
+      </c>
+      <c r="B40" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>701</v>
+      </c>
+      <c r="B41" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>702</v>
+      </c>
+      <c r="B42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>703</v>
+      </c>
+      <c r="B43" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>704</v>
+      </c>
+      <c r="B44" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>704</v>
+      </c>
+      <c r="B45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>705</v>
+      </c>
+      <c r="B46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>706</v>
+      </c>
+      <c r="B47" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3903A2E-46CD-4774-9E67-BCE652EC23E1}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B13" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4882F370-D11D-4D48-B439-E50F688E49DE}">
+  <dimension ref="A1:B469"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B24" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B26" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B27" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>682</v>
+      </c>
+      <c r="B28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B39" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>683</v>
+      </c>
+      <c r="B41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B44" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B47" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B52" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B53" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>684</v>
+      </c>
+      <c r="B54" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B56" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B57" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B58" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B60" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B61" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B63" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B65" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B66" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>685</v>
+      </c>
+      <c r="B67" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B68" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B69" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B70" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B72" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B75" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B76" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B78" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B79" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>686</v>
+      </c>
+      <c r="B80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B81" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B82" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B84" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B85" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B87" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B89" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B91" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B92" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>687</v>
+      </c>
+      <c r="B93" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B95" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B96" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B97" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B98" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B99" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B100" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B101" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B102" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B104" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B105" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>688</v>
+      </c>
+      <c r="B106" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B107" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B108" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B109" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B110" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B111" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B112" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B113" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B114" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B115" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B116" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B117" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B118" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>689</v>
+      </c>
+      <c r="B119" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B120" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B121" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B122" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B123" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B124" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B125" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B126" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B127" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B128" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B129" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B130" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B131" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>690</v>
+      </c>
+      <c r="B132" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B133" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B134" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B135" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B136" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B137" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B138" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B139" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B140" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B141" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B142" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B143" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B144" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>691</v>
+      </c>
+      <c r="B145" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B146" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B147" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B148" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B149" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B150" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B151" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B152" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B154" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B155" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B156" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B157" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>692</v>
+      </c>
+      <c r="B158" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B159" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B160" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B161" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B162" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B163" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B164" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B165" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B166" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B168" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B169" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B170" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>693</v>
+      </c>
+      <c r="B171" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B172" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B173" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B174" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B175" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B176" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B177" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B178" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B179" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B180" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B181" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B182" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B183" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>694</v>
+      </c>
+      <c r="B184" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B185" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B186" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B187" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B188" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B189" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B190" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B191" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B192" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B193" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>181</v>
+      </c>
+      <c r="B194" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B195" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B196" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>690</v>
+      </c>
+      <c r="B197" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B198" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B199" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B200" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B201" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B202" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B203" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B204" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B205" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B206" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B207" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B208" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B209" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>691</v>
+      </c>
+      <c r="B210" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B211" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B212" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B213" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B214" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B215" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B216" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B217" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B218" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B219" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B220" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B221" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B222" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>692</v>
+      </c>
+      <c r="B223" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B224" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B225" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B226" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B227" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B228" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B229" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B230" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B231" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>172</v>
+      </c>
+      <c r="B232" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B233" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B234" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B235" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>693</v>
+      </c>
+      <c r="B236" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B237" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B238" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B239" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B240" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B241" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B242" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B243" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B244" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B245" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B246" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B247" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B248" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>694</v>
+      </c>
+      <c r="B249" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B250" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B251" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B252" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B253" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B254" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B255" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B256" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B257" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B258" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>181</v>
+      </c>
+      <c r="B259" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B260" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B261" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>695</v>
+      </c>
+      <c r="B262" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B263" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B264" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B265" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B266" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B267" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B268" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B269" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B270" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B271" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B272" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B273" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B274" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>696</v>
+      </c>
+      <c r="B275" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B276" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B277" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B278" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B279" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B280" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B281" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B282" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B283" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B284" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B285" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B286" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B287" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>697</v>
+      </c>
+      <c r="B288" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B289" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B290" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B291" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B292" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B293" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B294" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B295" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B296" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B297" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B298" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B299" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B300" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>698</v>
+      </c>
+      <c r="B301" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B302" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B303" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B304" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B305" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>699</v>
+      </c>
+      <c r="B314" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>700</v>
+      </c>
+      <c r="B327" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>701</v>
+      </c>
+      <c r="B340" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>673</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>702</v>
+      </c>
+      <c r="B353" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>703</v>
+      </c>
+      <c r="B366" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>704</v>
+      </c>
+      <c r="B379" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B392" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>705</v>
+      </c>
+      <c r="B405" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>706</v>
+      </c>
+      <c r="B418" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eedc1a3dcf763a1/Documents/Hindi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{20D42D7D-3EB2-45DC-A438-FCFBA135C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA233A83-BC43-495B-BCE8-56D5203C2901}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{20D42D7D-3EB2-45DC-A438-FCFBA135C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6C11E2-78C3-447A-A0EF-F6BD5EB09E56}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6626AD4B-0A22-4C09-8D03-A95FA2517AF2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1528">
   <si>
     <t>To ask</t>
   </si>
@@ -1464,9 +1464,6 @@
     <t>Saib</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Bed</t>
   </si>
   <si>
@@ -1788,9 +1785,6 @@
     <t>Son</t>
   </si>
   <si>
-    <t>Baytaa</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
@@ -1818,9 +1812,6 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>Shikshak (m) Shikshikaa (f)</t>
-  </si>
-  <si>
     <t>Vegetables</t>
   </si>
   <si>
@@ -4618,14 +4609,28 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Shikshak</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4653,14 +4658,203 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8BAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8BAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8BAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8BAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8BAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8BAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8BAEB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4985,9 +5179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2588D900-C0E5-4B80-95B8-0BF8C0E3C797}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4998,7 +5194,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -5010,10 +5206,10 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="F1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5301,7 +5497,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C22" t="s">
         <v>411</v>
@@ -5730,7 +5926,231 @@
         <v>472</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>492</v>
+      </c>
+      <c r="C53" t="s">
+        <v>493</v>
+      </c>
+      <c r="D53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>521</v>
+      </c>
+      <c r="C54" t="s">
+        <v>522</v>
+      </c>
+      <c r="D54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>531</v>
+      </c>
+      <c r="C55" t="s">
+        <v>532</v>
+      </c>
+      <c r="D55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" t="s">
+        <v>419</v>
+      </c>
+      <c r="D57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C58" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>548</v>
+      </c>
+      <c r="C59" t="s">
+        <v>549</v>
+      </c>
+      <c r="D59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>572</v>
+      </c>
+      <c r="C60" t="s">
+        <v>573</v>
+      </c>
+      <c r="D60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>580</v>
+      </c>
+      <c r="C61" t="s">
+        <v>456</v>
+      </c>
+      <c r="D61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>603</v>
+      </c>
+      <c r="C62" t="s">
+        <v>604</v>
+      </c>
+      <c r="D62" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>381</v>
+      </c>
+      <c r="C63" t="s">
+        <v>485</v>
+      </c>
+      <c r="D63" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B53:C53">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$D53="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$D53="F"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$D53="M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$D53="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:C54">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$D54="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>$D54="F"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$D54="M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$D54="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:C55">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$D55="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$D55="F"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$D55="M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$D55="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:C56">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$D56="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$D56="F"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$D56="M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$D56="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:C63 E57:G63">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$D57="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$D57="F"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$D57="M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D57="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5752,7 +6172,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -5764,10 +6184,10 @@
         <v>370</v>
       </c>
       <c r="E1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="F1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7191,7 +7611,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -7200,10 +7620,10 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8167,10 +8587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD903DD2-94CC-4F2D-B6C5-96D042B2B520}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8180,23 +8600,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1527</v>
+      <c r="E1" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,7 +8630,7 @@
         <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8218,13 +8638,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" t="s">
         <v>478</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>479</v>
-      </c>
-      <c r="D3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8232,13 +8652,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" t="s">
         <v>481</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>482</v>
-      </c>
-      <c r="D4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8246,971 +8666,847 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" t="s">
         <v>484</v>
       </c>
-      <c r="C5" t="s">
-        <v>485</v>
-      </c>
       <c r="D5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C11" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D14" t="s">
         <v>502</v>
-      </c>
-      <c r="D14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C15" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C16" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D16" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C17" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C18" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C19" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D19" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C20" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D20" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D24" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C25" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D25" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C26" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C27" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D27" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C28" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D30" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>416</v>
+        <v>546</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>547</v>
       </c>
       <c r="D31" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="C32" t="s">
-        <v>419</v>
+        <v>551</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="C33" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="D33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="C34" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C35" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D35" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="C36" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="D36" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C37" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C38" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D38" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="C39" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D39" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="C40" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="D40" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C41" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="D41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C42" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D42" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C43" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D43" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="C44" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D44" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="C45" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="D45" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C46" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="D46" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="C47" t="s">
-        <v>566</v>
+        <v>1527</v>
       </c>
       <c r="D47" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C48" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="D48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="C49" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="D49" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="C50" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="D50" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="C51" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="D51" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C52" t="s">
-        <v>576</v>
+        <v>1526</v>
       </c>
       <c r="D52" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="C53" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="C54" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="D54" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="D55" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C56" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="D56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="C57" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="D57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="C58" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C59" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="D59" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="C60" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="D60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="C61" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="D61" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C62" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="D62" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C63" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="D63" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>598</v>
-      </c>
-      <c r="C64" t="s">
-        <v>599</v>
-      </c>
-      <c r="D64" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>600</v>
-      </c>
-      <c r="C65" t="s">
-        <v>601</v>
-      </c>
-      <c r="D65" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>602</v>
-      </c>
-      <c r="C66" t="s">
-        <v>603</v>
-      </c>
-      <c r="D66" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>604</v>
-      </c>
-      <c r="C67" t="s">
-        <v>605</v>
-      </c>
-      <c r="D67" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>606</v>
-      </c>
-      <c r="C68" t="s">
-        <v>607</v>
-      </c>
-      <c r="D68" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>608</v>
-      </c>
-      <c r="C69" t="s">
-        <v>609</v>
-      </c>
-      <c r="D69" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>610</v>
-      </c>
-      <c r="C70" t="s">
-        <v>611</v>
-      </c>
-      <c r="D70" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>612</v>
-      </c>
-      <c r="C71" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>614</v>
-      </c>
-      <c r="C72" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>615</v>
-      </c>
-      <c r="C73" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>617</v>
-      </c>
-      <c r="C74" t="s">
-        <v>618</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F63">
+    <sortCondition ref="A2:A63"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D1="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D1="F"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$D1="M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$D1="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9226,7 +9522,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -9235,10 +9531,10 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9246,10 +9542,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9257,10 +9553,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9268,10 +9564,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9279,10 +9575,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9290,10 +9586,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9301,10 +9597,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9312,10 +9608,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9323,10 +9619,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9334,10 +9630,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9345,10 +9641,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9356,10 +9652,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9367,10 +9663,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C13" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9378,10 +9674,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9389,10 +9685,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9400,10 +9696,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9411,10 +9707,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9422,10 +9718,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C18" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9433,10 +9729,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C19" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9444,10 +9740,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9455,10 +9751,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9466,10 +9762,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C22" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9477,10 +9773,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C23" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9488,10 +9784,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9499,10 +9795,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9510,10 +9806,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C26" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9521,10 +9817,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C27" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9532,10 +9828,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C28" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9543,10 +9839,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9554,10 +9850,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C30" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9565,10 +9861,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C31" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9576,10 +9872,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C32" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9587,10 +9883,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9598,10 +9894,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C34" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9609,10 +9905,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C35" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9620,10 +9916,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C36" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9631,10 +9927,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C37" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9642,10 +9938,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C38" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9653,10 +9949,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9664,10 +9960,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C40" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9675,10 +9971,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C41" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,10 +9982,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C42" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9697,10 +9993,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C43" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9708,10 +10004,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C44" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9719,10 +10015,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C45" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9730,10 +10026,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9741,10 +10037,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C47" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +10060,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -9773,10 +10069,10 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,10 +10080,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9795,10 +10091,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9806,10 +10102,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9817,10 +10113,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9828,10 +10124,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9839,10 +10135,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9850,10 +10146,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C8" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9861,10 +10157,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9872,10 +10168,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9883,10 +10179,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C11" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9894,10 +10190,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C12" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9905,10 +10201,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C13" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -9926,7 +10222,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -9935,10 +10231,10 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9946,10 +10242,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9957,10 +10253,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9968,10 +10264,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9979,10 +10275,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9990,10 +10286,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10001,10 +10297,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -10012,10 +10308,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C8" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10023,10 +10319,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -10034,10 +10330,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10045,10 +10341,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -10056,10 +10352,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -10067,10 +10363,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C13" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -10078,10 +10374,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10089,10 +10385,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -10100,10 +10396,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C16" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10111,10 +10407,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10122,10 +10418,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C18" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10133,10 +10429,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10144,10 +10440,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C20" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10155,10 +10451,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C21" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10166,10 +10462,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -10177,10 +10473,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C23" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -10188,10 +10484,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C24" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -10199,10 +10495,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C25" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10210,10 +10506,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C26" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -10221,10 +10517,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C27" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -10232,10 +10528,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -10243,10 +10539,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C29" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -10254,10 +10550,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C30" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -10265,10 +10561,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C31" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -10276,10 +10572,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10287,10 +10583,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -10298,10 +10594,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C34" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -10309,10 +10605,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C35" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -10320,10 +10616,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C36" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -10331,10 +10627,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C37" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -10342,10 +10638,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C38" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10353,10 +10649,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C39" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10364,10 +10660,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C40" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10375,10 +10671,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10386,10 +10682,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C42" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -10397,10 +10693,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C43" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -10408,10 +10704,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C44" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10419,10 +10715,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C45" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10430,10 +10726,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C46" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -10441,10 +10737,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C47" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -10452,10 +10748,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C48" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -10463,10 +10759,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C49" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10474,10 +10770,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C50" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -10485,10 +10781,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C51" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -10496,10 +10792,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C52" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10507,10 +10803,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C53" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -10518,10 +10814,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C54" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -10529,10 +10825,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C55" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -10540,10 +10836,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C56" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10551,10 +10847,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C57" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -10562,10 +10858,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C58" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -10573,10 +10869,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C59" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -10584,10 +10880,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C60" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10595,10 +10891,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C61" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -10606,10 +10902,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C62" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10617,10 +10913,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C63" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -10628,10 +10924,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C64" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -10639,10 +10935,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C65" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -10650,10 +10946,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C66" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -10661,10 +10957,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C67" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -10672,10 +10968,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C68" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -10683,10 +10979,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C69" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -10694,10 +10990,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C70" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -10705,10 +11001,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C71" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -10716,10 +11012,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C72" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -10727,10 +11023,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C73" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -10741,7 +11037,7 @@
         <v>366</v>
       </c>
       <c r="C74" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -10749,10 +11045,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C75" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -10760,10 +11056,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C76" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -10771,10 +11067,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C77" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -10782,10 +11078,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C78" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10793,10 +11089,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C79" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10804,10 +11100,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C80" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10815,10 +11111,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C81" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10826,10 +11122,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C82" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -10837,10 +11133,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C83" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10848,10 +11144,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C84" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -10859,10 +11155,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C85" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -10870,10 +11166,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C86" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -10881,10 +11177,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C87" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10892,10 +11188,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C88" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10903,10 +11199,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C89" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10914,10 +11210,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C90" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10925,10 +11221,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C91" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10936,10 +11232,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C92" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10947,10 +11243,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C93" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10958,10 +11254,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C94" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10969,10 +11265,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C95" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10980,10 +11276,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C96" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10991,10 +11287,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C97" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -11002,10 +11298,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C98" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -11013,10 +11309,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C99" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -11024,10 +11320,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C100" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -11035,10 +11331,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C101" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -11046,10 +11342,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C102" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -11057,10 +11353,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C103" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -11068,10 +11364,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C104" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -11079,10 +11375,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C105" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -11090,10 +11386,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C106" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -11101,10 +11397,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C107" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -11112,10 +11408,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C108" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -11123,10 +11419,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C109" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -11134,10 +11430,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C110" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -11145,10 +11441,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C111" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -11156,10 +11452,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C112" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -11167,10 +11463,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C113" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -11178,10 +11474,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C114" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -11189,10 +11485,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C115" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -11200,10 +11496,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C116" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -11211,10 +11507,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C117" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -11222,10 +11518,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C118" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11233,10 +11529,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C119" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -11244,10 +11540,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C120" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -11255,10 +11551,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C121" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -11266,10 +11562,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C122" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11277,10 +11573,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C123" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -11288,10 +11584,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C124" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -11299,10 +11595,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C125" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -11310,10 +11606,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C126" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -11321,10 +11617,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C127" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -11332,10 +11628,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C128" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -11343,10 +11639,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C129" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -11354,10 +11650,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C130" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -11365,10 +11661,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C131" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -11376,10 +11672,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C132" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -11387,10 +11683,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C133" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -11398,10 +11694,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C134" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -11409,10 +11705,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C135" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -11420,10 +11716,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C136" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -11431,10 +11727,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C137" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -11442,10 +11738,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C138" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -11453,10 +11749,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C139" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -11464,10 +11760,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C140" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -11475,10 +11771,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C141" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -11486,10 +11782,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C142" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -11497,10 +11793,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C143" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -11508,10 +11804,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C144" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -11519,10 +11815,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C145" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -11530,10 +11826,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C146" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -11541,10 +11837,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C147" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -11552,10 +11848,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C148" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -11563,10 +11859,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C149" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -11574,10 +11870,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C150" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -11585,10 +11881,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C151" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -11596,10 +11892,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C152" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -11607,10 +11903,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C153" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -11618,10 +11914,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C154" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -11629,10 +11925,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C155" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -11640,10 +11936,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C156" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -11651,10 +11947,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C157" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -11662,10 +11958,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C158" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -11673,10 +11969,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C159" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -11684,10 +11980,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C160" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -11695,10 +11991,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C161" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -11706,10 +12002,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C162" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -11717,10 +12013,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C163" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11728,10 +12024,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C164" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11739,10 +12035,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C165" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11750,10 +12046,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C166" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11764,7 +12060,7 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11772,10 +12068,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C168" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11783,10 +12079,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C169" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11794,10 +12090,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C170" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11805,10 +12101,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C171" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11816,10 +12112,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C172" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11827,10 +12123,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C173" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11838,10 +12134,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C174" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11849,10 +12145,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C175" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11860,10 +12156,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C176" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11871,10 +12167,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C177" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11882,10 +12178,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C178" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11893,10 +12189,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C179" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11904,10 +12200,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C180" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11915,10 +12211,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C181" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11926,10 +12222,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C182" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11937,10 +12233,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C183" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11948,10 +12244,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C184" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11959,10 +12255,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C185" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11970,10 +12266,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C186" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11981,10 +12277,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C187" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11992,10 +12288,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C188" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -12003,10 +12299,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C189" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -12014,10 +12310,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C190" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -12025,10 +12321,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C191" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -12036,10 +12332,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C192" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -12047,10 +12343,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C193" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -12061,7 +12357,7 @@
         <v>181</v>
       </c>
       <c r="C194" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -12069,10 +12365,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C195" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -12080,10 +12376,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C196" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -12091,10 +12387,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C197" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -12102,10 +12398,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C198" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -12113,10 +12409,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C199" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -12124,10 +12420,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C200" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -12135,10 +12431,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C201" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -12146,10 +12442,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C202" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -12157,10 +12453,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C203" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -12168,10 +12464,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C204" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -12179,10 +12475,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C205" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -12190,10 +12486,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C206" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -12201,10 +12497,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C207" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -12212,10 +12508,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C208" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -12223,10 +12519,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C209" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -12234,10 +12530,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C210" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -12245,10 +12541,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C211" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -12256,10 +12552,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C212" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -12267,10 +12563,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C213" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -12278,10 +12574,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C214" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -12289,10 +12585,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C215" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -12300,10 +12596,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C216" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -12311,10 +12607,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C217" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -12322,10 +12618,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C218" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -12333,10 +12629,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C219" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -12344,10 +12640,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C220" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -12355,10 +12651,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C221" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -12366,10 +12662,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C222" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -12377,10 +12673,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C223" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -12388,10 +12684,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C224" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -12399,10 +12695,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C225" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -12410,10 +12706,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C226" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -12421,10 +12717,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C227" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -12432,10 +12728,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C228" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -12443,10 +12739,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C229" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -12454,10 +12750,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C230" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -12465,10 +12761,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C231" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -12479,7 +12775,7 @@
         <v>172</v>
       </c>
       <c r="C232" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -12487,10 +12783,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C233" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -12498,10 +12794,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C234" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -12509,10 +12805,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C235" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -12520,10 +12816,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C236" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -12531,10 +12827,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C237" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -12542,10 +12838,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C238" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -12553,10 +12849,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C239" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -12564,10 +12860,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C240" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -12575,10 +12871,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C241" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -12586,10 +12882,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C242" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -12597,10 +12893,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C243" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -12608,10 +12904,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C244" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -12619,10 +12915,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C245" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -12630,10 +12926,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C246" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -12641,10 +12937,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C247" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -12652,10 +12948,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C248" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -12663,10 +12959,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C249" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -12674,10 +12970,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C250" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -12685,10 +12981,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C251" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -12696,10 +12992,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C252" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -12707,10 +13003,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C253" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -12718,10 +13014,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C254" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -12729,10 +13025,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C255" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -12740,10 +13036,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C256" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -12751,10 +13047,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C257" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -12762,10 +13058,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C258" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -12776,7 +13072,7 @@
         <v>181</v>
       </c>
       <c r="C259" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -12784,10 +13080,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C260" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -12795,10 +13091,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C261" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -12806,10 +13102,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C262" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -12817,10 +13113,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C263" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -12828,10 +13124,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C264" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -12839,10 +13135,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C265" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -12850,10 +13146,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C266" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -12861,10 +13157,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C267" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -12872,10 +13168,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C268" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -12883,10 +13179,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C269" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -12894,10 +13190,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C270" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -12905,10 +13201,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C271" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -12916,10 +13212,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C272" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -12927,10 +13223,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C273" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -12938,10 +13234,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C274" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -12949,10 +13245,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C275" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -12960,10 +13256,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C276" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -12971,10 +13267,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C277" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -12982,10 +13278,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C278" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -12993,10 +13289,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C279" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -13004,10 +13300,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C280" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -13015,10 +13311,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C281" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -13026,10 +13322,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C282" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -13037,10 +13333,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C283" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -13048,10 +13344,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C284" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -13059,10 +13355,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C285" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -13070,10 +13366,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C286" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -13081,10 +13377,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C287" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -13092,10 +13388,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C288" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -13103,10 +13399,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C289" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -13114,10 +13410,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C290" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -13125,10 +13421,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C291" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -13136,10 +13432,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C292" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -13147,10 +13443,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C293" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -13158,10 +13454,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C294" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -13169,10 +13465,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C295" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -13180,10 +13476,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C296" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -13191,10 +13487,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C297" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -13202,10 +13498,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C298" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -13213,10 +13509,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C299" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -13224,10 +13520,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C300" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -13235,10 +13531,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C301" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -13246,10 +13542,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C302" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -13257,10 +13553,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C303" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -13268,10 +13564,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C304" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -13279,10 +13575,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C305" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -13290,10 +13586,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C306" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -13301,10 +13597,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C307" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -13312,10 +13608,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C308" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -13323,10 +13619,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C309" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -13334,10 +13630,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C310" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -13345,10 +13641,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C311" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -13356,10 +13652,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C312" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -13367,10 +13663,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C313" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -13378,10 +13674,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C314" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -13389,10 +13685,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C315" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -13400,10 +13696,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C316" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -13411,10 +13707,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C317" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -13422,10 +13718,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C318" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -13433,10 +13729,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C319" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -13444,10 +13740,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C320" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -13455,10 +13751,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C321" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -13466,10 +13762,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C322" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -13477,10 +13773,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C323" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -13488,10 +13784,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C324" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -13499,10 +13795,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C325" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -13510,10 +13806,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C326" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -13521,10 +13817,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C327" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -13532,10 +13828,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C328" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -13543,10 +13839,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C329" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -13554,10 +13850,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C330" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -13565,10 +13861,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C331" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -13576,10 +13872,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C332" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -13587,10 +13883,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C333" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -13598,10 +13894,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C334" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -13609,10 +13905,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C335" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -13620,10 +13916,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C336" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -13631,10 +13927,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C337" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -13642,10 +13938,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C338" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -13653,10 +13949,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C339" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -13664,10 +13960,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C340" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -13675,10 +13971,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C341" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -13686,10 +13982,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C342" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -13697,10 +13993,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C343" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -13708,10 +14004,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C344" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -13719,10 +14015,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C345" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -13730,10 +14026,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C346" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -13741,10 +14037,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C347" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -13752,10 +14048,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C348" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -13763,10 +14059,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C349" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -13774,10 +14070,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C350" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -13785,10 +14081,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C351" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -13796,10 +14092,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C352" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -13807,10 +14103,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C353" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -13818,10 +14114,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C354" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -13829,10 +14125,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C355" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -13840,10 +14136,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C356" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -13851,10 +14147,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C357" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -13862,10 +14158,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C358" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -13873,10 +14169,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C359" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -13884,10 +14180,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C360" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -13895,10 +14191,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C361" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -13906,10 +14202,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C362" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -13917,10 +14213,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C363" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -13928,10 +14224,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C364" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -13939,10 +14235,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C365" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -13950,10 +14246,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C366" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -13961,10 +14257,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C367" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -13972,10 +14268,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C368" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -13983,10 +14279,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C369" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -13994,10 +14290,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="C370" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -14005,10 +14301,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C371" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -14016,10 +14312,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C372" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -14027,10 +14323,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C373" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -14038,10 +14334,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C374" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -14049,10 +14345,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C375" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -14060,10 +14356,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C376" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -14071,10 +14367,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C377" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -14082,10 +14378,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="C378" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -14093,10 +14389,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C379" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -14104,10 +14400,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C380" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -14115,10 +14411,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C381" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -14126,10 +14422,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C382" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -14137,10 +14433,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C383" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -14148,10 +14444,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C384" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -14159,10 +14455,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C385" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -14170,10 +14466,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C386" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -14181,10 +14477,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C387" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -14192,10 +14488,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C388" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -14203,10 +14499,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C389" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -14214,10 +14510,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="C390" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -14225,10 +14521,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C391" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -14236,10 +14532,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C392" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -14247,10 +14543,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C393" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -14258,10 +14554,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C394" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -14269,10 +14565,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C395" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -14280,10 +14576,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C396" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -14291,10 +14587,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C397" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -14302,10 +14598,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C398" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -14313,10 +14609,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C399" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -14324,10 +14620,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C400" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -14335,10 +14631,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C401" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -14346,10 +14642,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C402" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -14357,10 +14653,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C403" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -14368,10 +14664,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C404" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -14379,10 +14675,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C405" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -14390,10 +14686,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C406" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -14401,10 +14697,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C407" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -14412,10 +14708,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C408" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -14423,10 +14719,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C409" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -14434,10 +14730,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C410" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -14445,10 +14741,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C411" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -14456,10 +14752,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C412" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -14467,10 +14763,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C413" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -14478,10 +14774,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C414" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -14489,10 +14785,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C415" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -14500,10 +14796,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C416" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -14511,10 +14807,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C417" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -14522,10 +14818,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C418" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -14533,10 +14829,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C419" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -14544,10 +14840,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C420" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -14555,10 +14851,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C421" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -14566,10 +14862,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C422" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -14577,10 +14873,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C423" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -14588,10 +14884,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C424" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -14599,10 +14895,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C425" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -14610,10 +14906,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C426" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -14621,10 +14917,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C427" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -14632,10 +14928,10 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C428" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -14643,10 +14939,10 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C429" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -14654,10 +14950,10 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C430" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -14665,10 +14961,10 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C431" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -14676,10 +14972,10 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C432" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -14687,10 +14983,10 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C433" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -14698,10 +14994,10 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C434" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -14709,10 +15005,10 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C435" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -14720,10 +15016,10 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C436" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -14731,10 +15027,10 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C437" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -14742,10 +15038,10 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C438" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -14753,10 +15049,10 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C439" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -14764,10 +15060,10 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C440" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -14775,10 +15071,10 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C441" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -14786,10 +15082,10 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C442" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -14797,10 +15093,10 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C443" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -14808,10 +15104,10 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C444" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -14819,10 +15115,10 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C445" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -14830,10 +15126,10 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C446" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -14841,10 +15137,10 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C447" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -14852,10 +15148,10 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C448" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -14863,10 +15159,10 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C449" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -14874,10 +15170,10 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C450" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -14885,10 +15181,10 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C451" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -14896,10 +15192,10 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C452" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -14907,10 +15203,10 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C453" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -14918,10 +15214,10 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C454" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -14929,10 +15225,10 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C455" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -14940,10 +15236,10 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C456" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -14951,10 +15247,10 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C457" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -14962,10 +15258,10 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C458" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -14973,10 +15269,10 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C459" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -14984,10 +15280,10 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C460" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -14995,10 +15291,10 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C461" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -15006,10 +15302,10 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C462" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -15017,10 +15313,10 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C463" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -15028,10 +15324,10 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C464" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -15039,10 +15335,10 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C465" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -15050,10 +15346,10 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C466" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -15061,10 +15357,10 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C467" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -15072,10 +15368,10 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C468" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -15083,10 +15379,10 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C469" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
